--- a/data/ListaDeCirugias.xlsx
+++ b/data/ListaDeCirugias.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Bajo Riesgo</t>
   </si>
@@ -27,634 +27,100 @@
     <t>Alto Riesgo</t>
   </si>
   <si>
-    <t>Biopsia de piel</t>
-  </si>
-  <si>
-    <t>Histerectomía abdominal</t>
-  </si>
-  <si>
-    <t>Cirugía cardíaca abierta (bypass)</t>
-  </si>
-  <si>
-    <t>Extracción de quistes sebáceos</t>
-  </si>
-  <si>
-    <t>Cirugía de hernia discal</t>
-  </si>
-  <si>
-    <t>Cirugía de reemplazo de válvula cardíaca</t>
-  </si>
-  <si>
-    <t>Circuncisión</t>
-  </si>
-  <si>
-    <t>Cirugía bariátrica</t>
-  </si>
-  <si>
-    <t>Cirugía para cáncer de esófago</t>
-  </si>
-  <si>
-    <t>Cirugía de juanetes</t>
-  </si>
-  <si>
-    <t>Artroplastia de rodilla</t>
-  </si>
-  <si>
-    <t>Cirugía para cáncer de páncreas</t>
-  </si>
-  <si>
-    <t>Cirugía de túnel carpiano</t>
-  </si>
-  <si>
-    <t>Artroplastia de cadera</t>
-  </si>
-  <si>
-    <t>Trasplante de hígado</t>
-  </si>
-  <si>
-    <t>Extracción de lunares</t>
-  </si>
-  <si>
-    <t>Resección de colon</t>
-  </si>
-  <si>
-    <t>Trasplante de corazón</t>
-  </si>
-  <si>
-    <t>Tratamiento de hemorroides</t>
-  </si>
-  <si>
-    <t>Mastectomía</t>
-  </si>
-  <si>
-    <t>Cirugía de aneurisma aórtico abdominal</t>
-  </si>
-  <si>
-    <t>Extirpación de lipomas</t>
-  </si>
-  <si>
-    <t>Gastrectomía parcial</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de cáncer de pulmón</t>
-  </si>
-  <si>
-    <t>Cirugía de cataratas</t>
-  </si>
-  <si>
-    <t>Colectomía</t>
-  </si>
-  <si>
-    <t>Cirugía para traumatismos graves</t>
-  </si>
-  <si>
-    <t>Cirugía de glaucoma</t>
-  </si>
-  <si>
-    <t>Cirugía de reflujo gastroesofágico</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores cerebrales malignos</t>
-  </si>
-  <si>
-    <t>Vasectomía</t>
-  </si>
-  <si>
-    <t>Prostatectomía</t>
-  </si>
-  <si>
-    <t>Resección de sarcomas de partes blandas</t>
-  </si>
-  <si>
-    <t>Extracción de verrugas</t>
-  </si>
-  <si>
-    <t>Nefrectomía parcial</t>
-  </si>
-  <si>
-    <t>Cirugía para quemaduras graves</t>
-  </si>
-  <si>
-    <t>Extracción de uñas encarnadas</t>
-  </si>
-  <si>
-    <t>Amputación de extremidades debido a diabetes</t>
-  </si>
-  <si>
-    <t>Cirugía de reconstrucción facial</t>
-  </si>
-  <si>
-    <t>Biopsia de tejido mamario</t>
-  </si>
-  <si>
-    <t>Cirugía de pie diabético</t>
-  </si>
-  <si>
-    <t>Cirugía para separar gemelos siameses</t>
-  </si>
-  <si>
-    <t>Drenaje de abscesos</t>
-  </si>
-  <si>
-    <t>Cirugía de derivación coronaria (bypass)</t>
-  </si>
-  <si>
-    <t>Cirugía de derivación gástrica</t>
-  </si>
-  <si>
-    <t>Tratamiento de fístula anal</t>
-  </si>
-  <si>
-    <t>Cirugía para tumores cerebrales</t>
-  </si>
-  <si>
-    <t>Cirugía de reemplazo de articulaciones en pacientes con múltiples enfermedades crónicas</t>
-  </si>
-  <si>
-    <t>Tratamiento de fisura anal</t>
-  </si>
-  <si>
-    <t>Colecistectomía abierta</t>
-  </si>
-  <si>
-    <t>Cirugía de espondilolistesis</t>
-  </si>
-  <si>
-    <t>Colecistectomía laparoscópica</t>
-  </si>
-  <si>
-    <t>Esplenectomía</t>
-  </si>
-  <si>
-    <t>Cirugía de malformación de Chiari</t>
-  </si>
-  <si>
-    <t>Drenaje de quistes ováricos</t>
-  </si>
-  <si>
-    <t>Cirugía para fístula anal complicada</t>
-  </si>
-  <si>
-    <t>Trasplante de pulmón</t>
-  </si>
-  <si>
-    <t>Miomectomía</t>
-  </si>
-  <si>
-    <t>Cirugía de apendicitis complicada</t>
-  </si>
-  <si>
-    <t>Cirugía de tumores óseos malignos</t>
-  </si>
-  <si>
-    <t>Tonsilectomía</t>
-  </si>
-  <si>
-    <t>Mastoidectomía</t>
-  </si>
-  <si>
-    <t>Cirugía para mesotelioma</t>
-  </si>
-  <si>
-    <t>Adenoidectomía</t>
-  </si>
-  <si>
-    <t>Cirugía de úlcera péptica</t>
-  </si>
-  <si>
-    <t>Cirugía de exenteración pélvica</t>
-  </si>
-  <si>
-    <t>Tuboplastia</t>
-  </si>
-  <si>
-    <t>Timpanoplastia</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores de cabeza y cuello</t>
-  </si>
-  <si>
-    <t>Extirpación de pólipos nasales</t>
-  </si>
-  <si>
-    <t>Cirugía de hipospadias</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de neuroblastoma</t>
-  </si>
-  <si>
-    <t>Artroscopia de rodilla</t>
-  </si>
-  <si>
-    <t>Corrección de estrabismo</t>
-  </si>
-  <si>
-    <t>Cirugía de trasplante de médula ósea</t>
-  </si>
-  <si>
-    <t>Cirugía de hernia umbilical</t>
-  </si>
-  <si>
-    <t>Trasplante de riñón</t>
-  </si>
-  <si>
-    <t>Cirugía para displasia broncopulmonar</t>
-  </si>
-  <si>
-    <t>Cirugía de hernia inguinal</t>
-  </si>
-  <si>
-    <t>Cirugía para la enfermedad de Crohn</t>
-  </si>
-  <si>
-    <t>Cirugía de Whipple</t>
-  </si>
-  <si>
-    <t>Cirugía de hernia femoral</t>
-  </si>
-  <si>
-    <t>Cirugía de reparación de aneurisma aórtico</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de feocromocitoma</t>
-  </si>
-  <si>
-    <t>Cirugía de apendicitis no complicada</t>
-  </si>
-  <si>
-    <t>Cirugía de reparación de hernia hiatal</t>
-  </si>
-  <si>
-    <t>Cirugía de trasplante de intestino</t>
-  </si>
-  <si>
-    <t>Cirugía de párpados (Blefaroplastia)</t>
-  </si>
-  <si>
-    <t>Cirugía de úlcera duodenal</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de osteosarcoma</t>
-  </si>
-  <si>
-    <t>Extracción de cálculos renales</t>
-  </si>
-  <si>
-    <t>Cirugía de pólipos de colon</t>
-  </si>
-  <si>
-    <t>Cirugía de cáncer gástrico avanzado</t>
-  </si>
-  <si>
-    <t>Frenulectomía</t>
-  </si>
-  <si>
-    <t>Cirugía de fístula vesicovaginal</t>
-  </si>
-  <si>
-    <t>Cirugía para malformaciones arteriovenosas cerebrales</t>
-  </si>
-  <si>
-    <t>Tratamiento de varices</t>
-  </si>
-  <si>
-    <t>Cirugía de rotura de ligamentos</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de carcinoma hepatocelular</t>
-  </si>
-  <si>
-    <t>Cirugía LASIK</t>
-  </si>
-  <si>
-    <t>Cirugía de prótesis de rodilla</t>
-  </si>
-  <si>
-    <t>Cirugía de mielomeningocele</t>
-  </si>
-  <si>
-    <t>Extracción dental</t>
-  </si>
-  <si>
-    <t>Cirugía de reemplazo de válvula aórtica</t>
-  </si>
-  <si>
-    <t>Cirugía de síndrome de Marfan</t>
-  </si>
-  <si>
-    <t>Cirugía de amígdalas</t>
-  </si>
-  <si>
-    <t>Cirugía de reemplazo de válvula mitral</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores retroperitoneales</t>
-  </si>
-  <si>
-    <t>Cirugía de desviación del tabique nasal</t>
-  </si>
-  <si>
-    <t>Cirugía de hipertrofia benigna de próstata</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de carcinoma de células de Merkel</t>
-  </si>
-  <si>
-    <t>Operación de fimosis</t>
-  </si>
-  <si>
-    <t>Cirugía de estenosis espinal</t>
-  </si>
-  <si>
-    <t>Cirugía de malformación arteriovenosa pulmonar</t>
-  </si>
-  <si>
-    <t>Cirugía de menisco</t>
-  </si>
-  <si>
-    <t>Cirugía de glándula paratiroides</t>
-  </si>
-  <si>
-    <t>Cirugía de tetralogía de Fallot</t>
-  </si>
-  <si>
-    <t>Extracción de cálculos biliares</t>
-  </si>
-  <si>
-    <t>Cirugía de epilepsia</t>
-  </si>
-  <si>
-    <t>Cirugía de atresia esofágica</t>
-  </si>
-  <si>
-    <t>Implante dental</t>
-  </si>
-  <si>
-    <t>Cirugía de fístula arteriovenosa</t>
-  </si>
-  <si>
-    <t>Cirugía de miocardiopatía hipertrófica</t>
-  </si>
-  <si>
-    <t>Extracción de quiste pilonidal</t>
-  </si>
-  <si>
-    <t>Cirugía de revascularización miocárdica</t>
-  </si>
-  <si>
-    <t>Cirugía para leucemia</t>
-  </si>
-  <si>
-    <t>Artroscopia de hombro</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de cáncer de colon</t>
-  </si>
-  <si>
-    <t>Cirugía de atresia de vías biliares</t>
-  </si>
-  <si>
-    <t>Extracción de tumores benignos</t>
-  </si>
-  <si>
-    <t>Cirugía de páncreas</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de glioblastoma multiforme</t>
-  </si>
-  <si>
-    <t>Limpieza dental profunda</t>
-  </si>
-  <si>
-    <t>Cirugía de reparación de aneurisma cerebral</t>
-  </si>
-  <si>
-    <t>Cirugía para linfoma de Hodgkin</t>
-  </si>
-  <si>
-    <t>Cirugía de hernia diafragmática</t>
-  </si>
-  <si>
-    <t>Cirugía de incontinencia urinaria de esfuerzo</t>
-  </si>
-  <si>
-    <t>Cirugía para linfoma no Hodgkin</t>
-  </si>
-  <si>
-    <t>Cauterización nasal</t>
-  </si>
-  <si>
-    <t>Trasplante de córnea</t>
-  </si>
-  <si>
-    <t>Cirugía de síndrome de Cushing</t>
-  </si>
-  <si>
-    <t>Biopsia de próstata</t>
-  </si>
-  <si>
-    <t>Cirugía de obstrucción intestinal</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores mediastínicos</t>
-  </si>
-  <si>
-    <t>Cirugía de ligamento cruzado anterior</t>
-  </si>
-  <si>
-    <t>Cirugía de fistula traqueoesofágica</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de metástasis hepáticas</t>
-  </si>
-  <si>
-    <t>Cirugía de oído (miringotomía)</t>
-  </si>
-  <si>
-    <t>Cirugía de meningioma</t>
-  </si>
-  <si>
-    <t>Cirugía para mielofibrosis</t>
-  </si>
-  <si>
-    <t>Cirugía de sinusitis</t>
-  </si>
-  <si>
-    <t>Cirugía de resección transuretral de próstata</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de carcinoma adrenocortical</t>
-  </si>
-  <si>
-    <t>Reducción de fractura nasal</t>
-  </si>
-  <si>
-    <t>Cirugía de estenosis de uretra</t>
-  </si>
-  <si>
-    <t>Cirugía de trasplante de páncreas</t>
-  </si>
-  <si>
-    <t>Reducción de fractura de dedos</t>
-  </si>
-  <si>
-    <t>Cirugía de cálculos en el conducto salival</t>
-  </si>
-  <si>
-    <t>Cirugía para neurofibromatosis</t>
-  </si>
-  <si>
-    <t>Artroscopia de muñeca</t>
-  </si>
-  <si>
-    <t>Cirugía de hidrocefalia</t>
-  </si>
-  <si>
-    <t>Cirugía de trasplante de hígado pediátrico</t>
-  </si>
-  <si>
-    <t>Cirugía para incontinencia urinaria</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de adenoma de hipófisis</t>
-  </si>
-  <si>
-    <t>Cirugía para síndrome de Pierre Robin</t>
-  </si>
-  <si>
-    <t>Extirpación de ganglio linfático</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de carcinoma de tiroides</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores del estroma gastrointestinal</t>
-  </si>
-  <si>
-    <t>Extirpación de quiste mamario</t>
-  </si>
-  <si>
-    <t>Cirugía de vitrectomía</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de angiosarcoma</t>
-  </si>
-  <si>
-    <t>Cirugía de cornetes nasales</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de sarcoma</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores de células germinales</t>
-  </si>
-  <si>
-    <t>Cirugía de lentes intraoculares</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de melanoma</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de carcinoma de células transicionales</t>
-  </si>
-  <si>
-    <t>Cirugía de pie plano</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de glioma</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de sarcoma de Kaposi</t>
-  </si>
-  <si>
-    <t>Endoscopia nasal</t>
-  </si>
-  <si>
-    <t>Cirugía de divertículo de Meckel</t>
-  </si>
-  <si>
-    <t>Cirugía de trasplante de riñón pediátrico</t>
-  </si>
-  <si>
-    <t>Extirpación de quiste sebáceo</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores de vejiga</t>
-  </si>
-  <si>
-    <t>Cirugía para síndrome de Turner</t>
-  </si>
-  <si>
-    <t>Cirugía de fístula salival</t>
-  </si>
-  <si>
-    <t>Cirugía de diverticulitis</t>
-  </si>
-  <si>
-    <t>Cirugía para distrofia muscular de Duchenne</t>
-  </si>
-  <si>
-    <t>Extracción de cuerpos extraños</t>
-  </si>
-  <si>
-    <t>Cirugía de absceso hepático</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de tumores de células de Sertoli-Leydig</t>
-  </si>
-  <si>
-    <t>Lisis de adherencias</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de neoplasias endocrinas</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de carcinoma de células escamosas</t>
-  </si>
-  <si>
-    <t>Cirugía de hallux valgus</t>
-  </si>
-  <si>
-    <t>Cirugía de enfermedad de Paget</t>
-  </si>
-  <si>
-    <t>Cirugía para leucodistrofias</t>
-  </si>
-  <si>
-    <t>Cirugía de pterigion</t>
-  </si>
-  <si>
-    <t>Cirugía de enfermedad de Addison</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de cordoma</t>
-  </si>
-  <si>
-    <t>Implante de marcapasos</t>
-  </si>
-  <si>
-    <t>Cirugía de neoplasia de paratiroides</t>
-  </si>
-  <si>
-    <t>Cirugía de resección de mesotelioma pleural maligno</t>
-  </si>
-  <si>
-    <t>Cirugía de hemangioma</t>
-  </si>
-  <si>
-    <t>Cirugía de colgajo cutáneo</t>
-  </si>
-  <si>
-    <t>Cirugía para síndrome de Edwards</t>
-  </si>
-  <si>
-    <t>Láser verde en próstata</t>
-  </si>
-  <si>
-    <t>Cirugía de corrección de ptosis palpebral</t>
-  </si>
-  <si>
-    <t>Cirugía para síndrome de Patau</t>
+    <t>Tiroidectomía (sin vaciamiento)</t>
+  </si>
+  <si>
+    <t>Tiroidectomía con vaciamiento cervical</t>
+  </si>
+  <si>
+    <t>Cirugía carotídea</t>
+  </si>
+  <si>
+    <t>Cataratas, glaucoma, parpado</t>
+  </si>
+  <si>
+    <t>Esplenectomía, hernia hiatal, bariátrica, gastrectomía, colectomía, colecistectomía abierta</t>
+  </si>
+  <si>
+    <t>Esofagectomía</t>
+  </si>
+  <si>
+    <t>Meniscectomía, túnel carpiano, artroscopias, hallux valgus</t>
+  </si>
+  <si>
+    <t>Lobectomía o bilobectomía pulmonar</t>
+  </si>
+  <si>
+    <t>Pancreática y vía biliar</t>
+  </si>
+  <si>
+    <t>Plástica y Reconstructiva</t>
+  </si>
+  <si>
+    <t>Artroplastia cadera y rodilla, Fijación de columna</t>
+  </si>
+  <si>
+    <t>Trasplante hepático</t>
+  </si>
+  <si>
+    <t>Cirugía de superficie (lipoma, nevus, drenaje abscesos, biopsia de piel, biopsia tejido mamario)</t>
+  </si>
+  <si>
+    <t>Cirugía Vascular (Angioplastia arterial periférica, reparación de aneurisma aórtico endovascular, amputación de extremidad)</t>
+  </si>
+  <si>
+    <t>Revascularización abierta de extremidad inferior isquémica</t>
+  </si>
+  <si>
+    <t>RTU, circuncisión, vasectomía, litotripsia, biopsia protática</t>
+  </si>
+  <si>
+    <t>Trasplante renal</t>
+  </si>
+  <si>
+    <t>Aneurisma aórtico abdominal</t>
+  </si>
+  <si>
+    <t>TOT, TVT, legrado, esterilización femenina</t>
+  </si>
+  <si>
+    <t>Prostatectomía, nefrectomía parcial/total,</t>
+  </si>
+  <si>
+    <t>Neumonectomía</t>
+  </si>
+  <si>
+    <t>metastasectomía pulmonar - resección segmentaria pulmonar</t>
+  </si>
+  <si>
+    <t>Histerectomía abdominal, mastectomía total</t>
+  </si>
+  <si>
+    <t>Cistectomía total</t>
+  </si>
+  <si>
+    <t>Varices, fistula arteriovenosa simple</t>
+  </si>
+  <si>
+    <t>Fístula arteriovenosa compleja</t>
+  </si>
+  <si>
+    <t>Craniectomía (tumores, MAV)</t>
+  </si>
+  <si>
+    <t>Hernias, colecistectomía laparoscópica, fisura anal, condilomas, hemorroides</t>
+  </si>
+  <si>
+    <t>Trasplante Pulmonar</t>
+  </si>
+  <si>
+    <t>Septoplastia, amigdalectomía, adenoidectomia, amigdalectomía, pólipos nasales</t>
+  </si>
+  <si>
+    <t>Hernia nucleo pulposo (sin fijación de columna)</t>
+  </si>
+  <si>
+    <t>Mastectomía parcial</t>
   </si>
 </sst>
 </file>
@@ -708,14 +174,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -932,13 +398,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.56"/>
+    <col customWidth="1" min="1" max="1" width="34.56"/>
     <col customWidth="1" min="2" max="2" width="52.33"/>
     <col customWidth="1" min="3" max="3" width="103.0"/>
     <col customWidth="1" min="4" max="25" width="10.56"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,11 +598,9 @@
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1149,14 +613,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1168,14 +628,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1187,14 +643,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1205,15 +657,9 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1224,15 +670,9 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1243,15 +683,9 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1262,15 +696,9 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1281,15 +709,9 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1300,15 +722,9 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1319,15 +735,9 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1338,15 +748,9 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1357,543 +761,249 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>176</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>179</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>185</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>194</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>203</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1"/>
